--- a/seeding/IntlGuitarBuildersCaty_alphabetized.xlsx
+++ b/seeding/IntlGuitarBuildersCaty_alphabetized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9316B33-1DF5-4A37-A5DF-33AB6BA9D772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4F6F9-5A30-4E7D-B4DB-A2083D744E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3597,8 +3597,8 @@
   <dimension ref="A1:N687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>

--- a/seeding/IntlGuitarBuildersCaty_alphabetized.xlsx
+++ b/seeding/IntlGuitarBuildersCaty_alphabetized.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\fremi-explorer2\seeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B4F6F9-5A30-4E7D-B4DB-A2083D744E38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DDB27A-C3DD-4CE7-AF47-5C377D4B75D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="17010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3597,8 +3597,8 @@
   <dimension ref="A1:N687"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C114" sqref="C114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
